--- a/biology/Médecine/Giulio_Bizzozero/Giulio_Bizzozero.xlsx
+++ b/biology/Médecine/Giulio_Bizzozero/Giulio_Bizzozero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giulio Bizzozero (né le 28 mars 1846 à Varèse et mort le 8 avril 1901 à Turin, d'une pneumonie[1]) est un médecin italien du XIXe siècle. Il est considéré comme le père de l'histologie italienne, ainsi que l'un des plus importants précurseurs de la médecine préventive.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giulio Bizzozero (né le 28 mars 1846 à Varèse et mort le 8 avril 1901 à Turin, d'une pneumonie) est un médecin italien du XIXe siècle. Il est considéré comme le père de l'histologie italienne, ainsi que l'un des plus importants précurseurs de la médecine préventive.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en médecine à l'université de Pavie en 1866 (à 20 ans), il enseigne dès 1867 la pathologie générale à Pavie et est directeur du laboratoire de pathologie expérimentale, créé spécialement pour lui par Paolo Mantegazza.
 Giulio Bizzozero est connu pour avoir été à l'origine de la découverte de la Helicobacter pylori, la bactérie qui est responsable de l'ulcère gastro-duodénal (bien que ce fait ne fut pas accepté de façon générale jusqu'au début des années 1990).
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nodule de Bizzozero : desmosome visible en microscopie qui assure la cohésion intercellulaire d’un épithélium malpighien.</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'ordre des Saints-Maurice-et-Lazare
  Commandeur de l'ordre de la Couronne d'Italie
